--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +543,10 @@
         <v>1.132223</v>
       </c>
       <c r="I2">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J2">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.650022666666667</v>
+        <v>2.005747666666667</v>
       </c>
       <c r="N2">
-        <v>7.950068000000001</v>
+        <v>6.017243</v>
       </c>
       <c r="O2">
-        <v>0.6709899997181022</v>
+        <v>0.5060070458025943</v>
       </c>
       <c r="P2">
-        <v>0.6709899997181022</v>
+        <v>0.5076214806746766</v>
       </c>
       <c r="Q2">
-        <v>1.000138871240444</v>
+        <v>0.7569845467987777</v>
       </c>
       <c r="R2">
-        <v>9.001249841164</v>
+        <v>6.812860921188999</v>
       </c>
       <c r="S2">
-        <v>0.4560267924564989</v>
+        <v>0.2468062441658923</v>
       </c>
       <c r="T2">
-        <v>0.5105477110346087</v>
+        <v>0.2985751362838546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,45 +605,45 @@
         <v>1.132223</v>
       </c>
       <c r="I3">
-        <v>0.6796327704557233</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J3">
-        <v>0.7608872132954309</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>1.299399333333333</v>
+        <v>0.03782</v>
       </c>
       <c r="N3">
-        <v>3.898198</v>
+        <v>0.07564</v>
       </c>
       <c r="O3">
-        <v>0.3290100002818978</v>
+        <v>0.009541173493701741</v>
       </c>
       <c r="P3">
-        <v>0.3290100002818978</v>
+        <v>0.006381076648929175</v>
       </c>
       <c r="Q3">
-        <v>0.4904032704615555</v>
+        <v>0.01427355795333333</v>
       </c>
       <c r="R3">
-        <v>4.413629434154</v>
+        <v>0.08564134772</v>
       </c>
       <c r="S3">
-        <v>0.2236059779992245</v>
+        <v>0.004653732026953562</v>
       </c>
       <c r="T3">
-        <v>0.2503395022608221</v>
+        <v>0.003753251000252235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,55 +652,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1779035</v>
+        <v>0.3774076666666666</v>
       </c>
       <c r="H4">
-        <v>0.355807</v>
+        <v>1.132223</v>
       </c>
       <c r="I4">
-        <v>0.3203672295442765</v>
+        <v>0.4877525841056716</v>
       </c>
       <c r="J4">
-        <v>0.2391127867045692</v>
+        <v>0.588184597482006</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.650022666666667</v>
+        <v>1.920305333333333</v>
       </c>
       <c r="N4">
-        <v>7.950068000000001</v>
+        <v>5.760916</v>
       </c>
       <c r="O4">
-        <v>0.6709899997181022</v>
+        <v>0.484451780703704</v>
       </c>
       <c r="P4">
-        <v>0.6709899997181022</v>
+        <v>0.4859974426763943</v>
       </c>
       <c r="Q4">
-        <v>0.4714483074793335</v>
+        <v>0.7247379551408888</v>
       </c>
       <c r="R4">
-        <v>2.828689844876001</v>
+        <v>6.522641596268</v>
       </c>
       <c r="S4">
-        <v>0.2149632072616033</v>
+        <v>0.2362926079128257</v>
       </c>
       <c r="T4">
-        <v>0.1604422886834935</v>
+        <v>0.2858562101978993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,55 +714,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.396361</v>
+      </c>
+      <c r="H5">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J5">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.005747666666667</v>
+      </c>
+      <c r="N5">
+        <v>6.017243</v>
+      </c>
+      <c r="O5">
+        <v>0.5060070458025943</v>
+      </c>
+      <c r="P5">
+        <v>0.5076214806746766</v>
+      </c>
+      <c r="Q5">
+        <v>0.7950001509076666</v>
+      </c>
+      <c r="R5">
+        <v>4.770000905446</v>
+      </c>
+      <c r="S5">
+        <v>0.259200801636702</v>
+      </c>
+      <c r="T5">
+        <v>0.209046344390822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.396361</v>
+      </c>
+      <c r="H6">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J6">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.03782</v>
+      </c>
+      <c r="N6">
+        <v>0.07564</v>
+      </c>
+      <c r="O6">
+        <v>0.009541173493701741</v>
+      </c>
+      <c r="P6">
+        <v>0.006381076648929175</v>
+      </c>
+      <c r="Q6">
+        <v>0.01499037302</v>
+      </c>
+      <c r="R6">
+        <v>0.05996149207999999</v>
+      </c>
+      <c r="S6">
+        <v>0.004887441466748178</v>
+      </c>
+      <c r="T6">
+        <v>0.002627825648676941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.1779035</v>
-      </c>
-      <c r="H5">
-        <v>0.355807</v>
-      </c>
-      <c r="I5">
-        <v>0.3203672295442765</v>
-      </c>
-      <c r="J5">
-        <v>0.2391127867045692</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>1.299399333333333</v>
-      </c>
-      <c r="N5">
-        <v>3.898198</v>
-      </c>
-      <c r="O5">
-        <v>0.3290100002818978</v>
-      </c>
-      <c r="P5">
-        <v>0.3290100002818978</v>
-      </c>
-      <c r="Q5">
-        <v>0.2311676892976667</v>
-      </c>
-      <c r="R5">
-        <v>1.387006135786</v>
-      </c>
-      <c r="S5">
-        <v>0.1054040222826732</v>
-      </c>
-      <c r="T5">
-        <v>0.07867049802107567</v>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.396361</v>
+      </c>
+      <c r="H7">
+        <v>0.7927219999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5122474158943284</v>
+      </c>
+      <c r="J7">
+        <v>0.411815402517994</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.920305333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.760916</v>
+      </c>
+      <c r="O7">
+        <v>0.484451780703704</v>
+      </c>
+      <c r="P7">
+        <v>0.4859974426763943</v>
+      </c>
+      <c r="Q7">
+        <v>0.7611341422253333</v>
+      </c>
+      <c r="R7">
+        <v>4.566804853351999</v>
+      </c>
+      <c r="S7">
+        <v>0.2481591727908782</v>
+      </c>
+      <c r="T7">
+        <v>0.200141232478495</v>
       </c>
     </row>
   </sheetData>
